--- a/05_テスト/テスト仕様書_07 （第4反復）.xlsx
+++ b/05_テスト/テスト仕様書_07 （第4反復）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3179\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3ba5\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{3CBDC305-F4DF-409E-89FF-4803D61614EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A22B8840-285D-4C58-8903-36DB53587C08}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{3CBDC305-F4DF-409E-89FF-4803D61614EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A4AFE27C-A3B0-454D-990A-C4064E533575}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="HardMode" sheetId="22" r:id="rId8"/>
     <sheet name="Timer" sheetId="23" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="125">
   <si>
     <t>タイトル：ＸＸＸシステム テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -180,8 +180,13 @@
 2．startを実行してhardモードを選択</t>
   </si>
   <si>
-    <t>TIME：7.079秒_x000D_
-評価：Osonai?????
+    <t>TIME：（6.000以上）秒
+RESULT：Osonai?????
+と表示される</t>
+  </si>
+  <si>
+    <t>TIME：7.079秒
+RESULT：Osonai?????
 と表示される</t>
   </si>
   <si>
@@ -204,8 +209,13 @@
 3．startを実行してeasyモードを選択</t>
   </si>
   <si>
+    <t>TIME：（4.500以上6.000未満）秒
+RESULT：Great!!
+と表示される</t>
+  </si>
+  <si>
     <t>TIME：4.835秒
-評価：Great!!
+RESULT：Great!!
 と表示される</t>
   </si>
   <si>
@@ -228,7 +238,7 @@
 と順に表示される</t>
   </si>
   <si>
-    <t>タイトル：UI</t>
+    <t>タイトル：TypingGames</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -236,164 +246,6 @@
     <rPh sb="0" eb="2">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>showString</t>
-  </si>
-  <si>
-    <t>生成された文字列が正しく出力されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．引数に"abcdefg"を設定しshowString()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>abcdefg
-と表示されている</t>
-  </si>
-  <si>
-    <t>石川</t>
-  </si>
-  <si>
-    <t>showTime</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>経過時間が正しく出力されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．引数に2.5を設定しshowTime()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>TIME:2.5秒
-と表示されている</t>
-  </si>
-  <si>
-    <t>showAssessement</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>評価結果が正しく出力されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．引数に"Great"を設定しshowAssessement()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>Great
-と表示されている</t>
-  </si>
-  <si>
-    <t>showMistake</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>入力が間違っていた場合のコメントが
-正しく出力されるかを確認する。</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．showMistake()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>入力しなおしてください
-と表示されている</t>
-  </si>
-  <si>
-    <t>showSelectMode</t>
-  </si>
-  <si>
-    <t>５</t>
-  </si>
-  <si>
-    <t>モードの選択を促すコメントが正しく
-出力されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．showSelectMode()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>モードを選択してください
-1：easy, 2：hard
-と表示されている</t>
-  </si>
-  <si>
-    <t>showReady</t>
-  </si>
-  <si>
-    <t>６</t>
-  </si>
-  <si>
-    <t>タイピングの開始が正しく出力されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．showReady()を実行
-3．出力を目視で確認</t>
-  </si>
-  <si>
-    <t>Ready?
-と表示される</t>
-  </si>
-  <si>
-    <t>typing</t>
-  </si>
-  <si>
-    <t>７</t>
-  </si>
-  <si>
-    <t>タイピングされた文字列が正しく返されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．typing()を実行し、"abcdefg"と入力</t>
-  </si>
-  <si>
-    <t>abcdefg
-が返される</t>
-  </si>
-  <si>
-    <t>selectMode</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>入力された値が正しく返されるかを確認する</t>
-  </si>
-  <si>
-    <t>以下の手順で実行する
-1．UIクラスのインスタンスを生成
-2．selectMode()を実行し、1と入力</t>
-  </si>
-  <si>
-    <t>1
-が返される</t>
-  </si>
-  <si>
-    <t>タイトル：TypingGames</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -416,6 +268,9 @@
 が返ってくる。</t>
   </si>
   <si>
+    <t>太田</t>
+  </si>
+  <si>
     <t>（前提条件：Timerクラスのスタブを作る。
 　　　　　　　 getTime()の戻り値に1999をセットする。）
 以下の手順で実行
@@ -451,6 +306,9 @@
 2.assessment()を実行する。</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>タイピングにかかった時間を評価をする
 評価上から3段階目</t>
   </si>
@@ -466,6 +324,161 @@
 が返ってくる。			</t>
   </si>
   <si>
+    <t>タイトル：UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>showString</t>
+  </si>
+  <si>
+    <t>生成された文字列が正しく出力されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．引数に"abcdefg"を設定しshowString()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>abcdefg
+と表示されている</t>
+  </si>
+  <si>
+    <t>石川</t>
+  </si>
+  <si>
+    <t>showTime</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経過時間が正しく出力されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．引数に2.5を設定しshowTime()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>TIME:2.5秒
+と表示されている</t>
+  </si>
+  <si>
+    <t>showAssessement</t>
+  </si>
+  <si>
+    <t>評価結果が正しく出力されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．引数に"Great"を設定しshowAssessement()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>Great
+と表示されている</t>
+  </si>
+  <si>
+    <t>showMistake</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>入力が間違っていた場合のコメントが
+正しく出力されるかを確認する。</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．showMistake()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>入力しなおしてください
+と表示されている</t>
+  </si>
+  <si>
+    <t>showSelectMode</t>
+  </si>
+  <si>
+    <t>５</t>
+  </si>
+  <si>
+    <t>モードの選択を促すコメントが正しく
+出力されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．showSelectMode()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>モードを選択してください
+1：easy, 2：hard
+と表示されている</t>
+  </si>
+  <si>
+    <t>showReady</t>
+  </si>
+  <si>
+    <t>６</t>
+  </si>
+  <si>
+    <t>タイピングの開始が正しく出力されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．showReady()を実行
+3．出力を目視で確認</t>
+  </si>
+  <si>
+    <t>Ready?
+と表示される</t>
+  </si>
+  <si>
+    <t>typing</t>
+  </si>
+  <si>
+    <t>７</t>
+  </si>
+  <si>
+    <t>タイピングされた文字列が正しく返されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．typing()を実行し、"abcdefg"と入力</t>
+  </si>
+  <si>
+    <t>abcdefg
+が返される</t>
+  </si>
+  <si>
+    <t>selectMode</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>入力された値が正しく返されるかを確認する</t>
+  </si>
+  <si>
+    <t>以下の手順で実行する
+1．UIクラスのインスタンスを生成
+2．selectMode()を実行し、1と入力</t>
+  </si>
+  <si>
+    <t>1
+が返される</t>
+  </si>
+  <si>
     <t>タイトル：Mode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -521,9 +534,6 @@
     <t>5回実行して、5回すべて異なる7文字が提示される。</t>
   </si>
   <si>
-    <t>5回実行して、5回すべて異なる8文字が提示される。</t>
-  </si>
-  <si>
     <t>タイトル：HardMode</t>
   </si>
   <si>
@@ -556,6 +566,9 @@
   </si>
   <si>
     <t>開始時間が返される</t>
+  </si>
+  <si>
+    <t>原田</t>
   </si>
   <si>
     <t>終了時刻が入っているか確認する</t>
@@ -583,12 +596,6 @@
   </si>
   <si>
     <t>経過時間が返される</t>
-  </si>
-  <si>
-    <t>太田</t>
-  </si>
-  <si>
-    <t>原田</t>
   </si>
 </sst>
 </file>
@@ -1018,6 +1025,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,9 +1035,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1064,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3168,8 +3175,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7:AO9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -3471,20 +3478,20 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -3502,14 +3509,14 @@
     </row>
     <row r="8" spans="2:45" ht="90" customHeight="1">
       <c r="B8" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -3526,27 +3533,27 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -3562,16 +3569,16 @@
       <c r="AR8" s="10"/>
       <c r="AS8" s="23"/>
     </row>
-    <row r="9" spans="2:45" ht="90" customHeight="1">
+    <row r="9" spans="2:45" ht="111.75" customHeight="1">
       <c r="B9" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -3588,27 +3595,27 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -4126,7 +4133,7 @@
     <row r="1" spans="2:46" ht="9" customHeight="1"/>
     <row r="2" spans="2:46" ht="15" customHeight="1">
       <c r="C2" s="24" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4224,7 +4231,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4379,18 +4386,18 @@
       <c r="AT6" s="26"/>
     </row>
     <row r="7" spans="2:46" ht="140.25" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>76</v>
+      <c r="B7" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4407,27 +4414,27 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="14" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="14" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
@@ -4444,16 +4451,16 @@
       <c r="AT7" s="23"/>
     </row>
     <row r="8" spans="2:46" ht="140.25" customHeight="1">
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4470,27 +4477,27 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="14" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="14" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
@@ -4507,16 +4514,16 @@
       <c r="AT8" s="23"/>
     </row>
     <row r="9" spans="2:46" ht="140.25" customHeight="1">
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -4533,27 +4540,27 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
@@ -4564,22 +4571,22 @@
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="34"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="35"/>
     </row>
     <row r="10" spans="2:46" ht="140.25" customHeight="1">
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -4596,27 +4603,27 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="14" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -4633,16 +4640,16 @@
       <c r="AT10" s="23"/>
     </row>
     <row r="11" spans="2:46" ht="140.25" customHeight="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -4659,27 +4666,27 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="14" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="14" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -5106,7 +5113,7 @@
     <row r="1" spans="2:46" ht="9" customHeight="1"/>
     <row r="2" spans="2:46" ht="15" customHeight="1">
       <c r="C2" s="24" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5204,7 +5211,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5360,17 +5367,17 @@
     </row>
     <row r="7" spans="2:46" ht="72" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -5387,27 +5394,27 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="14" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="14" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
@@ -5425,17 +5432,17 @@
     </row>
     <row r="8" spans="2:46" ht="72" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -5452,27 +5459,27 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="14" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="14" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
@@ -5490,17 +5497,17 @@
     </row>
     <row r="9" spans="2:46" ht="72" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -5517,27 +5524,27 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="14" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="14" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
@@ -5548,24 +5555,24 @@
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
       <c r="AP9" s="10"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="34"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="35"/>
     </row>
     <row r="10" spans="2:46" ht="72" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -5582,27 +5589,27 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="14" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="14" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -5620,17 +5627,17 @@
     </row>
     <row r="11" spans="2:46" ht="72" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -5647,27 +5654,27 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="14" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="14" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -5685,17 +5692,17 @@
     </row>
     <row r="12" spans="2:46" ht="72" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -5712,27 +5719,27 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="14" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="14" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -5750,17 +5757,17 @@
     </row>
     <row r="13" spans="2:46" ht="72" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -5777,27 +5784,27 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="14" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="14" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -5815,17 +5822,17 @@
     </row>
     <row r="14" spans="2:46" ht="72" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -5842,27 +5849,27 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -6149,7 +6156,7 @@
     <row r="1" spans="1:45" ht="9" customHeight="1"/>
     <row r="2" spans="1:45" ht="15" customHeight="1">
       <c r="B2" s="24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -6247,7 +6254,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6402,18 +6409,18 @@
       <c r="AS6" s="26"/>
     </row>
     <row r="7" spans="1:45" ht="72" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>91</v>
+      <c r="A7" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -6430,27 +6437,27 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -6467,16 +6474,16 @@
       <c r="AS7" s="23"/>
     </row>
     <row r="8" spans="1:45" ht="72" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -6493,27 +6500,27 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="38"/>
       <c r="Y8" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
       <c r="AB8" s="37"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -6570,10 +6577,10 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35"/>
     </row>
     <row r="10" spans="1:45" ht="72" customHeight="1">
       <c r="B10" s="19"/>
@@ -7077,7 +7084,7 @@
     <row r="1" spans="1:45" ht="9" customHeight="1"/>
     <row r="2" spans="1:45" ht="15" customHeight="1">
       <c r="B2" s="24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -7175,7 +7182,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -7331,17 +7338,17 @@
     </row>
     <row r="7" spans="1:45" ht="72" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -7358,27 +7365,27 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -7395,7 +7402,7 @@
       <c r="AS7" s="23"/>
     </row>
     <row r="8" spans="1:45" ht="72" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="5"/>
@@ -7442,7 +7449,7 @@
       <c r="AS8" s="23"/>
     </row>
     <row r="9" spans="1:45" ht="72" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="5"/>
@@ -7483,10 +7490,10 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35"/>
     </row>
     <row r="10" spans="1:45" ht="72" customHeight="1">
       <c r="B10" s="19"/>
@@ -7990,7 +7997,7 @@
     <row r="1" spans="1:45" ht="9" customHeight="1"/>
     <row r="2" spans="1:45" ht="15" customHeight="1">
       <c r="B2" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -8088,7 +8095,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -8244,17 +8251,17 @@
     </row>
     <row r="7" spans="1:45" ht="72" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -8271,27 +8278,27 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -8308,7 +8315,7 @@
       <c r="AS7" s="23"/>
     </row>
     <row r="8" spans="1:45" ht="72" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="5"/>
@@ -8355,7 +8362,7 @@
       <c r="AS8" s="23"/>
     </row>
     <row r="9" spans="1:45" ht="72" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="5"/>
@@ -8396,10 +8403,10 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35"/>
     </row>
     <row r="10" spans="1:45" ht="72" customHeight="1">
       <c r="B10" s="19"/>
@@ -8903,7 +8910,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1"/>
     <row r="2" spans="2:45" ht="15" customHeight="1">
       <c r="B2" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -9001,7 +9008,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -9161,10 +9168,10 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -9181,27 +9188,27 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -9219,14 +9226,14 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -9243,27 +9250,27 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -9281,14 +9288,14 @@
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1">
       <c r="B9" s="19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -9305,27 +9312,27 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -9336,10 +9343,10 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35"/>
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1">
       <c r="B10" s="19"/>
@@ -9818,21 +9825,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -10016,37 +10014,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC103151-D75B-4D1C-971B-4F7A83C8DA00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC103151-D75B-4D1C-971B-4F7A83C8DA00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}"/>
 </file>